--- a/homework/calculos.xlsx
+++ b/homework/calculos.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonatan\Desktop\lenguaje dos\homework\homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b14s209\Desktop\homework\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7005FA-9F36-40B3-9F1E-77CBD5FAD5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{889D2441-69CA-4974-AD18-646717B777B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,29 +564,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB3E235-E2DE-4094-9407-A3A3B6143DE6}">
-  <dimension ref="A2:T18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -650,7 +648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -711,8 +709,12 @@
       <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="U3">
+        <f>MAX(B3:S3)</f>
+        <v>800000000</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -774,7 +776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -836,7 +838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -859,7 +861,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="4">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I6" s="4">
         <v>80</v>
@@ -898,7 +900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -921,7 +923,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="4">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4">
         <v>18</v>
@@ -960,7 +962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -983,7 +985,7 @@
         <v>0.08</v>
       </c>
       <c r="H8" s="4">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="I8" s="4">
         <v>7.0000000000000007E-2</v>
@@ -1022,7 +1024,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1043,217 +1045,217 @@
         <v>0.8</v>
       </c>
       <c r="F9" s="6">
-        <f>IF(F4="excelente", 1, IF(F4="bueno", 0.9, IF(F4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" ref="F9:T9" si="1">IF(F4="excelente", 1, IF(F4="bueno", 0.9, IF(F4="regular", 0.8, "Estado desconocido")))</f>
         <v>1</v>
       </c>
       <c r="G9" s="6">
-        <f>IF(G4="excelente", 1, IF(G4="bueno", 0.9, IF(G4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="H9" s="4">
-        <f>IF(H4="excelente", 1, IF(H4="bueno", 0.9, IF(H4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I9" s="4">
-        <f>IF(I4="excelente", 1, IF(I4="bueno", 0.9, IF(I4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <f>IF(J4="excelente", 1, IF(J4="bueno", 0.9, IF(J4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <f>IF(K4="excelente", 1, IF(K4="bueno", 0.9, IF(K4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L9" s="4">
-        <f>IF(L4="excelente", 1, IF(L4="bueno", 0.9, IF(L4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="M9" s="4">
-        <f>IF(M4="excelente", 1, IF(M4="bueno", 0.9, IF(M4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="N9" s="2">
-        <f>IF(N4="excelente", 1, IF(N4="bueno", 0.9, IF(N4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O9" s="2">
-        <f>IF(O4="excelente", 1, IF(O4="bueno", 0.9, IF(O4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P9" s="2">
-        <f>IF(P4="excelente", 1, IF(P4="bueno", 0.9, IF(P4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <f>IF(Q4="excelente", 1, IF(Q4="bueno", 0.9, IF(Q4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="R9" s="2" t="str">
-        <f>IF(R4="excelente", 1, IF(R4="bueno", 0.9, IF(R4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>Estado desconocido</v>
       </c>
       <c r="S9" s="2">
-        <f>IF(S4="excelente", 1, IF(S4="bueno", 0.9, IF(S4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T9" s="2">
-        <f>IF(T4="excelente", 1, IF(T4="bueno", 0.9, IF(T4="regular", 0.8, "Estado desconocido")))</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" ref="B10:E10" si="1">B3 * B9</f>
+        <f t="shared" ref="B10:E10" si="2">B3 * B9</f>
         <v>300000000</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>360000000</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000000</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72000000</v>
       </c>
       <c r="F10" s="6">
-        <f>F3 * F9</f>
+        <f t="shared" ref="F10:T10" si="3">F3 * F9</f>
         <v>100000000</v>
       </c>
       <c r="G10" s="6">
-        <f>G3 * G9</f>
+        <f t="shared" si="3"/>
         <v>450000000</v>
       </c>
       <c r="H10" s="4">
-        <f>H3 * H9</f>
+        <f t="shared" si="3"/>
         <v>90000000</v>
       </c>
       <c r="I10" s="4">
-        <f>I3 * I9</f>
+        <f t="shared" si="3"/>
         <v>300000000</v>
       </c>
       <c r="J10" s="4">
-        <f>J3 * J9</f>
+        <f t="shared" si="3"/>
         <v>500000000</v>
       </c>
       <c r="K10" s="4">
-        <f>K3 * K9</f>
+        <f t="shared" si="3"/>
         <v>100000000</v>
       </c>
       <c r="L10" s="4">
-        <f>L3 * L9</f>
+        <f t="shared" si="3"/>
         <v>81000000</v>
       </c>
       <c r="M10" s="4">
-        <f>M3 * M9</f>
+        <f t="shared" si="3"/>
         <v>640000000</v>
       </c>
       <c r="N10" s="2" t="e">
-        <f>N3 * N9</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="O10" s="2">
-        <f>O3 * O9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <f>P3 * P9</f>
+        <f t="shared" si="3"/>
         <v>-300000000</v>
       </c>
       <c r="Q10" s="2">
-        <f>Q3 * Q9</f>
+        <f t="shared" si="3"/>
         <v>360000000</v>
       </c>
       <c r="R10" s="2" t="e">
-        <f>R3 * R9</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="S10" s="2">
-        <f>S3 * S9</f>
+        <f t="shared" si="3"/>
         <v>200000000</v>
       </c>
       <c r="T10" s="2" t="e">
-        <f>T3 * T9</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <f t="shared" ref="B11:E11" si="2">MIN(B6, B7)</f>
+        <f t="shared" ref="B11:E11" si="4">MIN(B6, B7)</f>
         <v>68</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="F11" s="6">
-        <f>MIN(F6, F7)</f>
+        <f t="shared" ref="F11:R11" si="5">MIN(F6, F7)</f>
         <v>65</v>
       </c>
       <c r="G11" s="6">
-        <f>MIN(G6, G7)</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="H11" s="4">
-        <f>MIN(H6, H7)</f>
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="I11" s="4">
-        <f>MIN(I6, I7)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="J11" s="4">
-        <f>MIN(J6, J7)</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="K11" s="4">
-        <f>MIN(K6, K7)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L11" s="4">
-        <f>MIN(L6, L7)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="M11" s="4">
-        <f>MIN(M6, M7)</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="N11" s="2">
-        <f>MIN(N6, N7)</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="O11" s="2">
-        <f>MIN(O6, O7)</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="P11" s="2">
-        <f>MIN(P6, P7)</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="Q11" s="2">
-        <f>MIN(Q6, Q7)</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="R11" s="2">
-        <f>MIN(R6, R7)</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="S11" s="2" t="e">
@@ -1263,412 +1265,412 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" ref="B12:E12" si="3">IF(B11&gt;=70, 15, IF(B11&gt;=65, 20, 25))</f>
+        <f t="shared" ref="B12:E12" si="6">IF(B11&gt;=70, 15, IF(B11&gt;=65, 20, 25))</f>
         <v>20</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F12" s="6">
-        <f>IF(F11&gt;=70, 15, IF(F11&gt;=65, 20, 25))</f>
+        <f t="shared" ref="F12:T12" si="7">IF(F11&gt;=70, 15, IF(F11&gt;=65, 20, 25))</f>
         <v>20</v>
       </c>
       <c r="G12" s="6">
-        <f>IF(G11&gt;=70, 15, IF(G11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="H12" s="4">
-        <f>IF(H11&gt;=70, 15, IF(H11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(I11&gt;=70, 15, IF(I11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="J12" s="4">
-        <f>IF(J11&gt;=70, 15, IF(J11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="K12" s="4">
-        <f>IF(K11&gt;=70, 15, IF(K11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="L12" s="4">
-        <f>IF(L11&gt;=70, 15, IF(L11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="M12" s="4">
-        <f>IF(M11&gt;=70, 15, IF(M11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="N12" s="2">
-        <f>IF(N11&gt;=70, 15, IF(N11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="O12" s="2">
-        <f>IF(O11&gt;=70, 15, IF(O11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="P12" s="2">
-        <f>IF(P11&gt;=70, 15, IF(P11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Q12" s="2">
-        <f>IF(Q11&gt;=70, 15, IF(Q11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="R12" s="2">
-        <f>IF(R11&gt;=70, 15, IF(R11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="S12" s="2" t="e">
-        <f>IF(S11&gt;=70, 15, IF(S11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="T12" s="2" t="e">
-        <f>IF(T11&gt;=70, 15, IF(T11&gt;=65, 20, 25))</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" ref="B13:E13" si="4">B12 * 12</f>
+        <f t="shared" ref="B13:E13" si="8">B12 * 12</f>
         <v>240</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="F13" s="6">
-        <f>F12 * 12</f>
+        <f t="shared" ref="F13:T13" si="9">F12 * 12</f>
         <v>240</v>
       </c>
       <c r="G13" s="6">
-        <f>G12 * 12</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="H13" s="4">
-        <f>H12 * 12</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="I13" s="4">
-        <f>I12 * 12</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="J13" s="4">
-        <f>J12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="K13" s="4">
-        <f>K12 * 12</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="L13" s="4">
-        <f>L12 * 12</f>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="M13" s="4">
-        <f>M12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="N13" s="2">
-        <f>N12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="O13" s="2">
-        <f>O12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="P13" s="2">
-        <f>P12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="Q13" s="2">
-        <f>Q12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="R13" s="2">
-        <f>R12 * 12</f>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="S13" s="2" t="e">
-        <f>S12 * 12</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="T13" s="2" t="e">
-        <f>T12 * 12</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" ref="B14:E14" si="5">B10 * 0.5</f>
+        <f t="shared" ref="B14:E14" si="10">B10 * 0.5</f>
         <v>150000000</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>180000000</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>100000000</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36000000</v>
       </c>
       <c r="F14" s="6">
-        <f>F10 * 0.5</f>
+        <f t="shared" ref="F14:T14" si="11">F10 * 0.5</f>
         <v>50000000</v>
       </c>
       <c r="G14" s="6">
-        <f>G10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>225000000</v>
       </c>
       <c r="H14" s="4">
-        <f>H10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>45000000</v>
       </c>
       <c r="I14" s="4">
-        <f>I10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>150000000</v>
       </c>
       <c r="J14" s="4">
-        <f>J10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>250000000</v>
       </c>
       <c r="K14" s="4">
-        <f>K10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>50000000</v>
       </c>
       <c r="L14" s="4">
-        <f>L10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>40500000</v>
       </c>
       <c r="M14" s="4">
-        <f>M10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>320000000</v>
       </c>
       <c r="N14" s="2" t="e">
-        <f>N10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="O14" s="2">
-        <f>O10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <f>P10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>-150000000</v>
       </c>
       <c r="Q14" s="2">
-        <f>Q10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>180000000</v>
       </c>
       <c r="R14" s="2" t="e">
-        <f>R10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="S14" s="2">
-        <f>S10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>100000000</v>
       </c>
       <c r="T14" s="2" t="e">
-        <f>T10 * 0.5</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <f t="shared" ref="B15:E15" si="6">((1 + B8)^(1/12)) - 1</f>
+        <f t="shared" ref="B15:E15" si="12">((1 + B8)^(1/12)) - 1</f>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.0741237836483535E-3</v>
       </c>
       <c r="F15" s="6">
-        <f>((1 + F8)^(1/12)) - 1</f>
+        <f t="shared" ref="F15:T15" si="13">((1 + F8)^(1/12)) - 1</f>
         <v>4.8675505653430484E-3</v>
       </c>
       <c r="G15" s="6">
-        <f>((1 + G8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>6.4340301100034303E-3</v>
       </c>
       <c r="H15" s="4">
-        <f>((1 + H8)^(1/12)) - 1</f>
-        <v>-4.2653187775606449E-3</v>
+        <f t="shared" si="13"/>
+        <v>4.0741237836483535E-3</v>
       </c>
       <c r="I15" s="4">
-        <f>((1 + I8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="J15" s="4">
-        <f>((1 + J8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>8.3329514133367866E-6</v>
       </c>
       <c r="K15" s="4">
-        <f>((1 + K8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="L15" s="4">
-        <f>((1 + L8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="M15" s="4">
-        <f>((1 + M8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.311941426166497</v>
       </c>
       <c r="N15" s="2">
-        <f>((1 + N8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="O15" s="2">
-        <f>((1 + O8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="P15" s="2">
-        <f>((1 + P8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="Q15" s="2">
-        <f>((1 + Q8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>((1 + R8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="S15" s="2">
-        <f>((1 + S8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
       <c r="T15" s="2">
-        <f>((1 + T8)^(1/12)) - 1</f>
+        <f t="shared" si="13"/>
         <v>5.6541453874052738E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" ref="B16:E16" si="7">B14 * B15 / (1 - (1 + B15) ^ -B13)</f>
+        <f t="shared" ref="B16:E16" si="14">B14 * B15 / (1 - (1 + B15) ^ -B13)</f>
         <v>1143667.1264891098</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1596329.4106673736</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>762444.75099273992</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>235381.12771324883</v>
       </c>
       <c r="F16" s="6">
-        <f>F14 * F15 / (1 - (1 + F15) ^ -F13)</f>
+        <f t="shared" ref="F16:T16" si="15">F14 * F15 / (1 - (1 + F15) ^ -F13)</f>
         <v>353646.03300154494</v>
       </c>
       <c r="G16" s="6">
-        <f>G14 * G15 / (1 - (1 + G15) ^ -G13)</f>
+        <f t="shared" si="15"/>
         <v>2114113.5277209911</v>
       </c>
       <c r="H16" s="4">
-        <f>H14 * H15 / (1 - (1 + H15) ^ -H13)</f>
-        <v>165683.55177622463</v>
+        <f t="shared" si="15"/>
+        <v>353259.36478791584</v>
       </c>
       <c r="I16" s="4">
-        <f>I14 * I15 / (1 - (1 + I15) ^ -I13)</f>
+        <f t="shared" si="15"/>
         <v>1039682.4431444731</v>
       </c>
       <c r="J16" s="4">
-        <f>J14 * J15 / (1 - (1 + J15) ^ -J13)</f>
+        <f t="shared" si="15"/>
         <v>1042712.9728573929</v>
       </c>
       <c r="K16" s="4">
-        <f>K14 * K15 / (1 - (1 + K15) ^ -K13)</f>
+        <f t="shared" si="15"/>
         <v>346560.81438149104</v>
       </c>
       <c r="L16" s="4">
-        <f>L14 * L15 / (1 - (1 + L15) ^ -L13)</f>
+        <f t="shared" si="15"/>
         <v>359174.11740015901</v>
       </c>
       <c r="M16" s="4">
-        <f>M14 * M15 / (1 - (1 + M15) ^ -M13)</f>
+        <f t="shared" si="15"/>
         <v>99821256.373279035</v>
       </c>
       <c r="N16" s="2" t="e">
-        <f>N14 * N15 / (1 - (1 + N15) ^ -N13)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="O16" s="2">
-        <f>O14 * O15 / (1 - (1 + O15) ^ -O13)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <f>P14 * P15 / (1 - (1 + P15) ^ -P13)</f>
+        <f t="shared" si="15"/>
         <v>-1143667.1264891098</v>
       </c>
       <c r="Q16" s="2" t="e">
-        <f>Q14 * Q15 / (1 - (1 + Q15) ^ -Q13)</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="2" t="e">
-        <f>R14 * R15 / (1 - (1 + R15) ^ -R13)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="S16" s="2" t="e">
-        <f>S14 * S15 / (1 - (1 + S15) ^ -S13)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="T16" s="2" t="e">
-        <f>T14 * T15 / (1 - (1 + T15) ^ -T13)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1677,79 +1679,79 @@
         <v>274480110.35738635</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:E17" si="8">C16 * C13</f>
+        <f t="shared" ref="C17:E17" si="16">C16 * C13</f>
         <v>287339293.92012721</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>182986740.23825759</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>56491470.651179716</v>
       </c>
       <c r="F17" s="6">
-        <f>F16 * F13</f>
+        <f t="shared" ref="F17:T17" si="17">F16 * F13</f>
         <v>84875047.920370787</v>
       </c>
       <c r="G17" s="6">
-        <f>G16 * G13</f>
+        <f t="shared" si="17"/>
         <v>380540434.9897784</v>
       </c>
       <c r="H17" s="4">
-        <f>H16 * H13</f>
-        <v>29823039.319720432</v>
+        <f t="shared" si="17"/>
+        <v>63586685.661824852</v>
       </c>
       <c r="I17" s="4">
-        <f>I16 * I13</f>
+        <f t="shared" si="17"/>
         <v>311904732.94334191</v>
       </c>
       <c r="J17" s="4">
-        <f>J16 * J13</f>
+        <f t="shared" si="17"/>
         <v>250251113.48577428</v>
       </c>
       <c r="K17" s="4">
-        <f>K16 * K13</f>
+        <f t="shared" si="17"/>
         <v>103968244.31444731</v>
       </c>
       <c r="L17" s="4">
-        <f>L16 * L13</f>
+        <f t="shared" si="17"/>
         <v>64651341.132028624</v>
       </c>
       <c r="M17" s="4">
-        <f>M16 * M13</f>
+        <f t="shared" si="17"/>
         <v>23957101529.586967</v>
       </c>
       <c r="N17" s="2" t="e">
-        <f>N16 * N13</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="O17" s="2">
-        <f>O16 * O13</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <f>P16 * P13</f>
+        <f t="shared" si="17"/>
         <v>-274480110.35738635</v>
       </c>
       <c r="Q17" s="2" t="e">
-        <f>Q16 * Q13</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R17" s="2" t="e">
-        <f>R16 * R13</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="S17" s="2" t="e">
-        <f>S16 * S13</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
       <c r="T17" s="2" t="e">
-        <f>T16 * T13</f>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15">
       <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
@@ -1758,75 +1760,75 @@
         <v>625000</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="C18:E18" si="9">IF(C17 &gt; C14, C14 / C13, C16)</f>
+        <f t="shared" ref="C18:E18" si="18">IF(C17 &gt; C14, C14 / C13, C16)</f>
         <v>1000000</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>416666.66666666669</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>150000</v>
       </c>
       <c r="F18" s="6">
-        <f>IF(F17 &gt; F14, F14 / F13, F16)</f>
+        <f t="shared" ref="F18:T18" si="19">IF(F17 &gt; F14, F14 / F13, F16)</f>
         <v>208333.33333333334</v>
       </c>
       <c r="G18" s="6">
-        <f>IF(G17 &gt; G14, G14 / G13, G16)</f>
+        <f t="shared" si="19"/>
         <v>1250000</v>
       </c>
       <c r="H18" s="4">
-        <f>IF(H17 &gt; H14, H14 / H13, H16)</f>
-        <v>165683.55177622463</v>
+        <f t="shared" si="19"/>
+        <v>250000</v>
       </c>
       <c r="I18" s="4">
-        <f>IF(I17 &gt; I14, I14 / I13, I16)</f>
+        <f t="shared" si="19"/>
         <v>500000</v>
       </c>
       <c r="J18" s="4">
-        <f>IF(J17 &gt; J14, J14 / J13, J16)</f>
+        <f t="shared" si="19"/>
         <v>1041666.6666666666</v>
       </c>
       <c r="K18" s="4">
-        <f>IF(K17 &gt; K14, K14 / K13, K16)</f>
+        <f t="shared" si="19"/>
         <v>166666.66666666666</v>
       </c>
       <c r="L18" s="4">
-        <f>IF(L17 &gt; L14, L14 / L13, L16)</f>
+        <f t="shared" si="19"/>
         <v>225000</v>
       </c>
       <c r="M18" s="4">
-        <f>IF(M17 &gt; M14, M14 / M13, M16)</f>
+        <f t="shared" si="19"/>
         <v>1333333.3333333333</v>
       </c>
       <c r="N18" s="2" t="e">
-        <f>IF(N17 &gt; N14, N14 / N13, N16)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="O18" s="2">
-        <f>IF(O17 &gt; O14, O14 / O13, O16)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <f>IF(P17 &gt; P14, P14 / P13, P16)</f>
+        <f t="shared" si="19"/>
         <v>-1143667.1264891098</v>
       </c>
       <c r="Q18" s="2" t="e">
-        <f>IF(Q17 &gt; Q14, Q14 / Q13, Q16)</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R18" s="2" t="e">
-        <f>IF(R17 &gt; R14, R14 / R13, R16)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="S18" s="2" t="e">
-        <f>IF(S17 &gt; S14, S14 / S13, S16)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="T18" s="2" t="e">
-        <f>IF(T17 &gt; T14, T14 / T13, T16)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/homework/calculos.xlsx
+++ b/homework/calculos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b14s209\Desktop\homework\homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b14s204\Desktop\homework\homework\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A2:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -680,13 +680,13 @@
         <v>500000000</v>
       </c>
       <c r="K3" s="5">
-        <v>100000000</v>
+        <v>1000</v>
       </c>
       <c r="L3" s="5">
         <v>90000000</v>
       </c>
       <c r="M3" s="5">
-        <v>800000000</v>
+        <v>900000000</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>22</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="U3">
         <f>MAX(B3:S3)</f>
-        <v>800000000</v>
+        <v>900000000</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -861,7 +861,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="4">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I6" s="4">
         <v>80</v>
@@ -873,7 +873,7 @@
         <v>70</v>
       </c>
       <c r="L6" s="4">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M6" s="4">
         <v>70</v>
@@ -923,7 +923,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I7" s="4">
         <v>18</v>
@@ -932,10 +932,10 @@
         <v>68</v>
       </c>
       <c r="K7" s="4">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L7" s="4">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="M7" s="4">
         <v>65</v>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>100000000</v>
+        <v>1000</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="M10" s="4">
         <f t="shared" si="3"/>
-        <v>640000000</v>
+        <v>720000000</v>
       </c>
       <c r="N10" s="2" t="e">
         <f t="shared" si="3"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="5"/>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="5"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="7"/>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="9"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="11"/>
-        <v>50000000</v>
+        <v>500</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="11"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="M14" s="4">
         <f t="shared" si="11"/>
-        <v>320000000</v>
+        <v>360000000</v>
       </c>
       <c r="N14" s="2" t="e">
         <f t="shared" si="11"/>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="15"/>
-        <v>346560.81438149104</v>
+        <v>4.4342483629649259</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="15"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="M16" s="4">
         <f t="shared" si="15"/>
-        <v>99821256.373279035</v>
+        <v>112298913.41993892</v>
       </c>
       <c r="N16" s="2" t="e">
         <f t="shared" si="15"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="17"/>
-        <v>103968244.31444731</v>
+        <v>798.1647053336867</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="17"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="M17" s="4">
         <f t="shared" si="17"/>
-        <v>23957101529.586967</v>
+        <v>26951739220.785339</v>
       </c>
       <c r="N17" s="2" t="e">
         <f t="shared" si="17"/>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="19"/>
-        <v>166666.66666666666</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="19"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="M18" s="4">
         <f t="shared" si="19"/>
-        <v>1333333.3333333333</v>
+        <v>1500000</v>
       </c>
       <c r="N18" s="2" t="e">
         <f t="shared" si="19"/>

--- a/homework/calculos.xlsx
+++ b/homework/calculos.xlsx
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7">
-        <v>300000000</v>
+        <v>500000000</v>
       </c>
       <c r="C3" s="7">
         <v>400000000</v>
@@ -680,10 +680,10 @@
         <v>500000000</v>
       </c>
       <c r="K3" s="5">
-        <v>1000</v>
+        <v>100000000</v>
       </c>
       <c r="L3" s="5">
-        <v>90000000</v>
+        <v>40000000</v>
       </c>
       <c r="M3" s="5">
         <v>900000000</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" ref="B10:E10" si="2">B3 * B9</f>
-        <v>300000000</v>
+        <v>500000000</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="2"/>
@@ -1147,11 +1147,11 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>100000000</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>81000000</v>
+        <v>36000000</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="3"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:E14" si="10">B10 * 0.5</f>
-        <v>150000000</v>
+        <v>250000000</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="10"/>
@@ -1469,11 +1469,11 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>50000000</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="11"/>
-        <v>40500000</v>
+        <v>18000000</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="11"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" ref="B16:E16" si="14">B14 * B15 / (1 - (1 + B15) ^ -B13)</f>
-        <v>1143667.1264891098</v>
+        <v>1906111.8774818499</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="14"/>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="15"/>
-        <v>4.4342483629649259</v>
+        <v>443424.83629649261</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="15"/>
-        <v>359174.11740015901</v>
+        <v>159632.94106673734</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="15"/>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B17" s="6">
         <f>B16 * B13</f>
-        <v>274480110.35738635</v>
+        <v>457466850.595644</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" ref="C17:E17" si="16">C16 * C13</f>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="17"/>
-        <v>798.1647053336867</v>
+        <v>79816470.533368662</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="17"/>
-        <v>64651341.132028624</v>
+        <v>28733929.392012723</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="17"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B18" s="6">
         <f>IF(B17 &gt; B14, B14 / B13, B16)</f>
-        <v>625000</v>
+        <v>1041666.6666666666</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ref="C18:E18" si="18">IF(C17 &gt; C14, C14 / C13, C16)</f>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="19"/>
-        <v>2.7777777777777777</v>
+        <v>277777.77777777775</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="19"/>
-        <v>225000</v>
+        <v>100000</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="19"/>

--- a/homework/calculos.xlsx
+++ b/homework/calculos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t xml:space="preserve">Valo_ Inmueble </t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>regular</t>
-  </si>
-  <si>
-    <t>soltero</t>
   </si>
   <si>
     <t>tolal_pagado</t>
@@ -567,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -588,64 +585,64 @@
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15">
@@ -662,16 +659,16 @@
         <v>250000000</v>
       </c>
       <c r="E3" s="7">
-        <v>90000000</v>
+        <v>300000000</v>
       </c>
       <c r="F3" s="7">
-        <v>100000000</v>
+        <v>300000000</v>
       </c>
       <c r="G3" s="7">
-        <v>500000000</v>
+        <v>280000000</v>
       </c>
       <c r="H3" s="5">
-        <v>100000000</v>
+        <v>650000000</v>
       </c>
       <c r="I3" s="5">
         <v>300000000</v>
@@ -680,16 +677,16 @@
         <v>500000000</v>
       </c>
       <c r="K3" s="5">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="L3" s="5">
-        <v>40000000</v>
+        <v>500000000</v>
       </c>
       <c r="M3" s="5">
         <v>900000000</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
@@ -707,11 +704,11 @@
         <v>200000000</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U3">
-        <f>MAX(B3:S3)</f>
-        <v>900000000</v>
+        <f>MIN(B3:S3)</f>
+        <v>-300000000</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15">
@@ -767,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>6</v>
@@ -778,7 +775,7 @@
     </row>
     <row r="5" spans="1:21" ht="15">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -808,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>16</v>
@@ -894,7 +891,7 @@
         <v>70</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T6" s="2">
         <v>70</v>
@@ -967,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8" s="6">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="6">
         <v>0.06</v>
@@ -1123,19 +1120,19 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="2"/>
-        <v>72000000</v>
+        <v>240000000</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:T10" si="3">F3 * F9</f>
-        <v>100000000</v>
+        <v>300000000</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="3"/>
-        <v>450000000</v>
+        <v>252000000</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>90000000</v>
+        <v>585000000</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
@@ -1147,11 +1144,11 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="3"/>
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>36000000</v>
+        <v>450000000</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="3"/>
@@ -1445,19 +1442,19 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="10"/>
-        <v>36000000</v>
+        <v>120000000</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ref="F14:T14" si="11">F10 * 0.5</f>
-        <v>50000000</v>
+        <v>150000000</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="11"/>
-        <v>225000000</v>
+        <v>126000000</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="11"/>
-        <v>45000000</v>
+        <v>292500000</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="11"/>
@@ -1469,11 +1466,11 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="11"/>
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="11"/>
-        <v>18000000</v>
+        <v>225000000</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="11"/>
@@ -1514,11 +1511,11 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" ref="B15:E15" si="12">((1 + B8)^(1/12)) - 1</f>
-        <v>5.6541453874052738E-3</v>
+        <v>3.436608313191658E-2</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="12"/>
-        <v>5.6541453874052738E-3</v>
+        <v>3.436608313191658E-2</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="12"/>
@@ -1526,7 +1523,7 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="12"/>
-        <v>4.0741237836483535E-3</v>
+        <v>3.436608313191658E-2</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ref="F15:T15" si="13">((1 + F8)^(1/12)) - 1</f>
@@ -1595,11 +1592,11 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" ref="B16:E16" si="14">B14 * B15 / (1 - (1 + B15) ^ -B13)</f>
-        <v>1906111.8774818499</v>
+        <v>8594105.2767413873</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="14"/>
-        <v>1596329.4106673736</v>
+        <v>6200053.7677473761</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="14"/>
@@ -1607,19 +1604,19 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="14"/>
-        <v>235381.12771324883</v>
+        <v>4125170.5328358654</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ref="F16:T16" si="15">F14 * F15 / (1 - (1 + F15) ^ -F13)</f>
-        <v>353646.03300154494</v>
+        <v>1060938.0990046347</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="15"/>
-        <v>2114113.5277209911</v>
+        <v>1183903.575523755</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="15"/>
-        <v>353259.36478791584</v>
+        <v>2296185.8711214527</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="15"/>
@@ -1631,11 +1628,11 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="15"/>
-        <v>443424.83629649261</v>
+        <v>886849.67259298521</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="15"/>
-        <v>159632.94106673734</v>
+        <v>1995411.7633342168</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="15"/>
@@ -1672,15 +1669,15 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6">
         <f>B16 * B13</f>
-        <v>457466850.595644</v>
+        <v>2062585266.417933</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" ref="C17:E17" si="16">C16 * C13</f>
-        <v>287339293.92012721</v>
+        <v>1116009678.1945276</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="16"/>
@@ -1688,19 +1685,19 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" si="16"/>
-        <v>56491470.651179716</v>
+        <v>990040927.88060772</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ref="F17:T17" si="17">F16 * F13</f>
-        <v>84875047.920370787</v>
+        <v>254625143.76111233</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="17"/>
-        <v>380540434.9897784</v>
+        <v>213102643.59427592</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="17"/>
-        <v>63586685.661824852</v>
+        <v>413313456.80186146</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="17"/>
@@ -1712,11 +1709,11 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="17"/>
-        <v>79816470.533368662</v>
+        <v>159632941.06673732</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="17"/>
-        <v>28733929.392012723</v>
+        <v>359174117.400159</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="17"/>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="18" spans="1:20" ht="15">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6">
         <f>IF(B17 &gt; B14, B14 / B13, B16)</f>
@@ -1769,19 +1766,19 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" si="18"/>
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" ref="F18:T18" si="19">IF(F17 &gt; F14, F14 / F13, F16)</f>
-        <v>208333.33333333334</v>
+        <v>625000</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="19"/>
-        <v>1250000</v>
+        <v>700000</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="19"/>
-        <v>250000</v>
+        <v>1625000</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="19"/>
@@ -1793,11 +1790,11 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="19"/>
-        <v>277777.77777777775</v>
+        <v>555555.5555555555</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="19"/>
-        <v>100000</v>
+        <v>1250000</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="19"/>
